--- a/src/test/resources/Project3.xlsx
+++ b/src/test/resources/Project3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\IdeaProjects\SaucedemoProject3\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D101AD5-3342-44C1-8967-3B5F47080F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017ABC39-CECC-444A-A66D-C31DCD7F6BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{75AA4BE6-8683-40EE-8D15-C681BC3CBF2C}"/>
   </bookViews>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Test_name</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
     <t>Password</t>
   </si>
   <si>
@@ -43,6 +40,24 @@
   </si>
   <si>
     <t>secret_sauce</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>PostalCode</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>XYZ</t>
+  </si>
+  <si>
+    <t>UserName</t>
   </si>
 </sst>
 </file>
@@ -401,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BAB3505-EB96-424F-BC07-992D85E1672B}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,28 +427,49 @@
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>400708</v>
       </c>
     </row>
   </sheetData>
